--- a/spreadsheet/appsvc_security_checklist.ja.xlsx
+++ b/spreadsheet/appsvc_security_checklist.ja.xlsx
@@ -1100,33 +1100,33 @@
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>アウトバウンド・ネットワーク・アクセスを制御する必要がある</t>
+          <t>Key Vault を使用してシークレットを格納する</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t>地域の VNet 統合、ネットワーク セキュリティ グループ、および UDR の組み合わせを使用して、送信ネットワーク アクセスを制御します。 トラフィックは、Azure ファイアウォールなどの NVA にルーティングする必要があります。 ファイアウォールのログを監視してください。</t>
+          <t>Azure Key Vault を使用して、アプリケーションに必要なシークレットを格納します。 Key Vault は、シークレットを格納するための安全で監査された環境を提供し、Key Vault SDK または App Service Key Vault リファレンスを通じて App Service と適切に統合されています。</t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/overview-vnet-integration</t>
+          <t>https://docs.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1150,33 +1150,33 @@
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>インターネットアドレスへのアウトバウンド通信のための安定したIPを確保する</t>
+          <t>マネージド ID を使用して Key Vault に接続する</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t>VNet 統合を使用し、VNet NAT ゲートウェイまたは Azure ファイアウォールなどの NVA を使用することで、安定した送信 IP を提供できます。 これにより、受信側は、必要に応じて IP に基づいて許可リストを作成できます。 Azure サービスへの通信では、多くの場合、IP アドレスに依存する必要はなく、代わりにサービス エンドポイントなどのメカニズムを使用する必要があります。 (また、受信側でプライベート エンドポイントを使用すると、SNAT の発生を回避し、安定したアウトバウンド IP 範囲が提供されます)。</t>
+          <t>マネージド ID を使用して、Key Vault SDK を使用するか、App Service Key Vault 参照を使用して Key Vault に接続します。</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
+          <t>https://docs.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1200,17 +1200,17 @@
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>インバウンド・ネットワーク・アクセスを制御する必要がある</t>
+          <t>キー コンテナーを使用して TLS 証明書を格納します。</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>App Service アクセス制限、サービス エンドポイント、またはプライベート エンドポイントの組み合わせを使用して、受信ネットワーク アクセスを制御します。Web アプリ自体と SCM サイトに対して、異なるアクセス制限が必要で、構成できます。</t>
+          <t>アプリ サービスの TLS 証明書をキー コンテナーに格納します。</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
@@ -1220,13 +1220,13 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
+          <t>https://docs.microsoft.com/azure/app-service/configure-ssl-certificate</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1250,33 +1250,33 @@
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>App Service の前で WAF を使用する</t>
+          <t>機密情報を処理するシステムを分離する</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション ゲートウェイや Azure Front Door などの Web アプリケーション ファイアウォールを使用して、悪意のある受信トラフィックから保護します。 WAF のログを必ず監視してください。</t>
+          <t>機密情報を処理するシステムは分離する必要があります。 これを行うには、個別の App Service プランまたは App Service 環境を使用し、異なるサブスクリプションまたは管理グループの使用を検討してください。</t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
+          <t>https://docs.microsoft.com/azure/app-service/overview-hosting-plans</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1300,33 +1300,33 @@
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>WAF がバイパスされないようにする</t>
+          <t>機密データをローカルディスクに保存しない</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t>WAF のみへのアクセスをロックダウンして、WAF をバイパスできないことを確認します。 アクセス制限、サービスエンドポイント、プライベートエンドポイントを組み合わせて使用します。</t>
+          <t>App Service 上のローカル ディスクは暗号化されていないため、機密データをそれらのディスクに格納しないでください。 (例: D:\\Local および %TMP%)。</t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
+          <t>https://docs.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1350,17 +1350,17 @@
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID とアクセス制御</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>最小 TLS ポリシーを 1.2 に設定します。</t>
+          <t>認証に確立された ID プロバイダーを使用する</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>App Service 構成で最小 TLS ポリシーを 1.2 に設定します。</t>
+          <t>認証された Web アプリケーションの場合は、Azure AD や Azure AD B2C などの確立された ID プロバイダーを使用します。 選択したアプリケーション フレームワークを利用して、このプロバイダーと統合するか、App Service の認証/承認機能を使用します。</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
@@ -1370,13 +1370,13 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
+          <t>https://docs.microsoft.com/azure/app-service/overview-authentication-authorization</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1400,17 +1400,17 @@
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID とアクセス制御</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>HTTPS のみを使用する</t>
+          <t>信頼できる環境からデプロイする</t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t>HTTPS のみを使用するように App Service を構成します。 これにより、App Service は HTTP から HTTPS にリダイレクトされます。 コード内または WAF から HTTP 厳密トランスポート セキュリティ (HSTS) を使用することを強く検討し、HTTPS を使用してのみサイトにアクセスする必要があることをブラウザーに通知します。</t>
+          <t>適切に管理され、セキュリティで保護された DevOps デプロイ パイプラインなど、制御された信頼できる環境から App Service にコードをデプロイします。これにより、バージョン管理されておらず、悪意のあるホストから展開されることが確認されていないコードを回避できます。</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1420,13 +1420,13 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
+          <t>https://docs.microsoft.com/azure/app-service/deploy-best-practices</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1450,17 +1450,17 @@
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID とアクセス制御</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>ワイルドカードは CORS に使用してはなりません。</t>
+          <t>基本認証を無効にする</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t>CORS 構成ではワイルドカードを使用しないでください。これにより、すべてのオリジンがサービスにアクセスできるようになります (これにより、CORS の目的が損なわれます)。具体的には、サービスにアクセスできると予想されるオリジンのみを許可します。</t>
+          <t>FTP/FTPS と WebDeploy/SCM の両方の基本認証を無効にします。 これにより、これらのサービスへのアクセスが無効になり、デプロイに Azure AD のセキュリティで保護されたエンドポイントの使用が強制されます。 SCM サイトは、Azure AD 資格情報を使用して開くこともできます。</t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1470,13 +1470,13 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
+          <t>https://docs.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1500,33 +1500,33 @@
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス制御</t>
+          <t>ID とアクセス制御</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>認証に確立された ID プロバイダーを使用する</t>
+          <t>マネージド ID を使用してリソースに接続する</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>認証された Web アプリケーションの場合は、Azure AD や Azure AD B2C などの確立された ID プロバイダーを使用します。 選択したアプリケーションフレームワークを活用して、このプロバイダーと統合するか、App Service 認証/承認機能を使用します。</t>
+          <t>可能な場合は、マネージド ID を使用して Azure AD のセキュリティで保護されたリソースに接続します。 これが不可能な場合は、シークレットを Key Vault に格納し、代わりにマネージド ID を使用して Key Vault に接続します。</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/overview-authentication-authorization</t>
+          <t>https://docs.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1550,17 +1550,17 @@
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID とアクセス制御</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>リモートデバッグをオフにする</t>
+          <t>マネージド ID を使用したコンテナーのプル</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>リモートデバッグは、サービスに追加のポートを開き、攻撃対象領域を増やすため、運用環境では有効にしないでください。サービスは 48 時間後にリモートデバッグを自動的にオンにすることに注意してください。</t>
+          <t>Azure コンテナー レジストリに格納されているイメージを使用する場合は、マネージド ID を使用してこれらをプルします。</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1570,13 +1570,13 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
+          <t>https://docs.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1600,17 +1600,17 @@
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ログ記録と監視</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Defender for Cloud - Defender for App Service を有効にする</t>
+          <t>App Service ランタイム ログをログ分析に送信する</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Defender for App Service を有効にします。 これは(他の脅威の中でも特に)既知の悪意のあるIPアドレスへの通信を検出します。 操作の一環として、Defender for App Service からの推奨事項を確認します。</t>
+          <t>App Service の診断設定を構成することで、すべてのテレメトリをログ記録と監視の中心的な宛先として Log Analytics に送信できます。これにより、HTTPログ、アプリケーションログ、プラットフォームログなどのApp Serviceの実行時アクティビティを監視できます。</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
@@ -1620,13 +1620,13 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
+          <t>https://docs.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1650,17 +1650,17 @@
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ログ記録と監視</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>WAF VNet で DDOS 保護標準を有効にする</t>
+          <t>App Service アクティビティ ログをログ分析に送信する</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t>Azure はネットワーク上で DDoS Basic 保護を提供しますが、これは、通常のトラフィック パターンを学習し、異常な動作を検出できるインテリジェントな DDoS Standard 機能によって改善できます。DDoS 標準は仮想ネットワークに適用されるため、アプリケーション ゲートウェイや NVA など、アプリの前にあるネットワーク リソース用に構成する必要があります。</t>
+          <t>ログ記録と監視の中心的な宛先として Log Analytics にアクティビティ ログを送信するように診断設定を設定します。これにより、App Service リソース自体のコントロール プレーン アクティビティを監視できます。</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
@@ -1670,13 +1670,13 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1705,12 +1705,12 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワーク経由でコンテナをプルする</t>
+          <t>送信ネットワーク アクセスを制御する必要がある</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t>Azure コンテナー レジストリに格納されているイメージを使用する場合は、プライベート エンドポイントとアプリ設定 'WEBSITE_PULL_IMAGE_OVER_VNET' を使用して、Azure コンテナー レジストリから仮想ネットワーク経由でイメージをプルします。</t>
+          <t>リージョン VNet 統合、ネットワーク セキュリティ グループ、および UDR の組み合わせを使用して、送信ネットワーク アクセスを制御します。 トラフィックは、Azure ファイアウォールなどの NVA にルーティングする必要があります。 ファイアウォールのログを必ず監視してください。</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
@@ -1720,13 +1720,13 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
+          <t>https://docs.microsoft.com/azure/app-service/overview-vnet-integration</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1750,33 +1750,33 @@
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>ログ記録と監視</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>App Service ランタイム ログをログ分析に送信する</t>
+          <t>インターネットアドレスへのアウトバウンド通信のための安定したIPを確保する</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>App Service の診断設定を構成することで、すべてのテレメトリをログ記録と監視の中心的な送信先として Log Analytics に送信できます。これにより、HTTPログ、アプリケーションログ、プラットフォームログなどのApp Serviceのランタイムアクティビティを監視できます。</t>
+          <t>安定した送信 IP を提供するには、VNet 統合を使用し、VNet NAT ゲートウェイまたは Azure ファイアウォールなどの NVA を使用します。 これにより、受信側は必要に応じて IP に基づいて許可リストに登録できます。 Azure Services への通信では、多くの場合、IP アドレスに依存する必要はなく、代わりにサービス エンドポイントなどのメカニズムを使用する必要があることに注意してください。 (また、受信側でプライベート エンドポイントを使用すると、SNAT の発生が回避され、安定した送信 IP 範囲が提供されます)。</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1800,33 +1800,33 @@
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>ログ記録と監視</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>App Service アクティビティ ログをログ分析に送信する</t>
+          <t>受信ネットワーク アクセスを制御する必要がある</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>ログ記録と監視の中心的な送信先としてアクティビティ ログを Log Analytics に送信する診断設定を設定します。これにより、App Service リソース自体のコントロール プレーンのアクティビティを監視できます。</t>
+          <t>App Service アクセス制限、サービス エンドポイント、またはプライベート エンドポイントの組み合わせを使用して、受信ネットワーク アクセスを制御します。Web アプリ自体と SCM サイトに対して異なるアクセス制限を要求し、構成することができます。</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1850,17 +1850,17 @@
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス制御</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>信頼された環境からの展開</t>
+          <t>アプリ サービスの前で WAF を使用する</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>適切に管理され、セキュリティで保護された DevOps デプロイ パイプラインなど、制御された信頼できる環境から App Service にコードをデプロイします。これにより、バージョン管理されておらず、悪意のあるホストから展開されることが検証されていないコードが回避されます。</t>
+          <t>アプリケーション ゲートウェイや Azure Front Door などの Web アプリケーション ファイアウォールを使用して、悪意のある受信トラフィックから保護します。 WAF のログを必ず監視してください。</t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
@@ -1870,13 +1870,13 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/deploy-best-practices</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1900,17 +1900,17 @@
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス制御</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>基本認証を無効にする</t>
+          <t>WAFがバイパスされないようにする</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>FTP/FTPS と WebDeploy/SCM の両方の基本認証を無効にします。 これにより、これらのサービスへのアクセスが無効になり、デプロイに Azure AD で保護されたエンドポイントの使用が強制されます。 SCM サイトは、Azure AD 資格情報を使用して開くこともできます。</t>
+          <t>WAF のみへのアクセスをロックダウンして、WAF をバイパスできないことを確認します。 アクセス制限、サービス エンドポイント、プライベート エンドポイントを組み合わせて使用します。</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
@@ -1920,13 +1920,13 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1950,33 +1950,33 @@
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス制御</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>マネージド ID を使用してリソースに接続する</t>
+          <t>最小 TLS ポリシーを 1.2 に設定する</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t>可能であれば、マネージド ID を使用して、Azure AD で保護されたリソースに接続します。 これが不可能な場合は、シークレットを Key Vault に格納し、代わりにマネージド ID を使用して Key Vault に接続します。</t>
+          <t>App Service 構成で最小 TLS ポリシーを 1.2 に設定します。</t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
+          <t>https://docs.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2000,17 +2000,17 @@
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス制御</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>マネージド ID を使用したコンテナーのプル</t>
+          <t>HTTPS のみを使用する</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Azure コンテナー レジストリに格納されているイメージを使用する場合は、マネージド ID を使用してイメージをプルします。</t>
+          <t>HTTPS のみを使用するようにアプリ サービスを構成します。 これにより、App Service は HTTP から HTTPS にリダイレクトされます。 コード内または WAF から HTTP 厳密トランスポート セキュリティ (HSTS) を使用して、HTTPS のみを使用してサイトにアクセスする必要があることをブラウザーに通知することを強く検討してください。</t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
@@ -2020,13 +2020,13 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
+          <t>https://docs.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2050,17 +2050,17 @@
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>キー コンテナーを使用してシークレットを保存する</t>
+          <t>ワイルドカードは CORS に使用しないでください</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用して、アプリケーションが必要とするシークレットを保存します。 Key Vault は、シークレットを格納するための安全で監査された環境を提供し、Key Vault SDK または App Service Key Vault References を通じて App Service と十分に統合されています。</t>
+          <t>CORS 設定では、すべてのオリジンがサービスにアクセスできる (CORS の目的が無効になるため) ワイルドカードを使用しないでください。具体的には、サービスにアクセスできると予想されるオリジンのみを許可します。</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
@@ -2070,20 +2070,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://docs.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2099,17 +2099,17 @@
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>マネージド ID を使用して Key Vault に接続する</t>
+          <t>リモート デバッグをオフにする</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t>マネージド ID を使用して、Key Vault SDK または App Service Key Vault References を使用して Key Vault に接続します。</t>
+          <t>リモート デバッグは、サービスに追加のポートが開かれ、攻撃対象領域が増えるため、運用環境で有効にしないでください。サービスは 48 時間後に自動的にリモート デバッグをオンにすることに注意してください。</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
@@ -2119,20 +2119,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://docs.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2148,40 +2148,40 @@
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>キー コンテナーを使用して TLS 証明書を格納します。</t>
+          <t>クラウドの Defender を有効にする - アプリ サービスの Defender</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t>App Service TLS 証明書を Key Vault に保存します。</t>
+          <t>アプリ サービスの Defender を有効にします。 これは(他の脅威の中でも)既知の悪意のあるIPアドレスへの通信を検出します。 運用の一環として、アプリ サービスの Defender からの推奨事項を確認します。</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/configure-ssl-certificate</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2197,17 +2197,17 @@
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>機密情報を処理するシステムを分離</t>
+          <t>WAF VNet で DDOS 保護標準を有効にする</t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>機密情報を処理するシステムは、分離する必要があります。 これを行うには、個別の App Service プランまたは App Service 環境を使用し、異なるサブスクリプションまたは管理グループの使用を検討してください。</t>
+          <t>Azure はネットワーク上で DDoS Basic 保護を提供しますが、通常のトラフィック パターンを学習し、異常な動作を検出できるインテリジェントな DDoS 標準機能で強化できます。DDoS 標準は仮想ネットワークに適用されるため、アプリケーション ゲートウェイや NVA など、アプリの前のネットワーク リソース用に構成する必要があります。</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
@@ -2217,20 +2217,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/overview-hosting-plans</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2246,17 +2246,17 @@
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>機密データをローカルディスクに保存しない</t>
+          <t>仮想ネットワーク経由でコンテナーをプルする</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>App Service 上のローカル ディスクは暗号化されず、機密データはそれらのディスクに格納しないでください。 (例: D:\\Local および %TMP%)</t>
+          <t>Azure コンテナー レジストリに格納されているイメージを使用する場合は、プライベート エンドポイントとアプリ設定 "WEBSITE_PULL_IMAGE_OVER_VNET" を使用して、Azure コンテナー レジストリから仮想ネットワーク経由でこれらをプルします。</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2266,20 +2266,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
+          <t>https://docs.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2295,17 +2295,17 @@
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>脆弱性管理</t>
+          <t>ペネトレーションテスト</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>検証済みコードのデプロイ</t>
+          <t>侵入テストの実施</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>DevSecOps プラクティスに従って脆弱性が検証およびスキャンされた信頼できるコードを展開します。</t>
+          <t>エンゲージメントの侵入テストルールに従って、Webアプリケーションで侵入テストを実施します。</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
@@ -2315,13 +2315,13 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/pen-testing</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2350,28 +2350,28 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>最新のプラットフォーム、言語、プロトコル、フレームワークを使用する</t>
+          <t>検証済みのコードをデプロイする</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>サポートされているプラットフォーム、プログラミング言語、プロトコル、およびフレームワークの最新バージョンを使用します。</t>
+          <t>DevSecOps プラクティスに従って脆弱性が検証およびスキャンされた信頼できるコードをデプロイします。</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
+          <t>https://docs.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2379,7 +2379,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2395,33 +2395,33 @@
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>侵入テスト</t>
+          <t>脆弱性管理</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>侵入テストの実施</t>
+          <t>最新のプラットフォーム、言語、プロトコル、フレームワークを使用する</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>侵入テストの契約規則に従って、Web アプリケーションで侵入テストを実施します。</t>
+          <t>サポートされているプラットフォーム、プログラミング言語、プロトコル、およびフレームワークの最新バージョンを使用します。</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/pen-testing</t>
+          <t>https://docs.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2450,13 +2450,13 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Enforce a process for cost management</t>
+          <t>Ensure required services and features are available within the chosen deployment regions</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2467,19 +2467,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2500,13 +2500,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
+          <t>Enforce a process for cost management</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2517,19 +2517,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Ensure tags are used for billing and cost management</t>
+          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2567,19 +2567,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2590,17 +2590,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
+          <t>Ensure tags are used for billing and cost management</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2617,19 +2617,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2672,14 +2672,14 @@
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2722,14 +2722,14 @@
       </c>
       <c r="I40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2772,14 +2772,14 @@
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2817,19 +2817,19 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2867,19 +2867,19 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2922,14 +2922,14 @@
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2968,13 +2968,18 @@
       <c r="H45" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2995,7 +3000,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -3012,19 +3017,15 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3040,12 +3041,12 @@
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3062,19 +3063,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3095,7 +3096,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3112,14 +3113,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3140,7 +3146,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3164,7 +3170,7 @@
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3185,7 +3191,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
+          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3205,16 +3211,12 @@
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="I50" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
-        </is>
-      </c>
+      <c r="I50" s="16" t="n"/>
       <c r="J50" s="23" t="n"/>
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3235,7 +3237,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
+          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3257,14 +3259,14 @@
       </c>
       <c r="I51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3285,7 +3287,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
+          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3314,7 +3316,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3335,7 +3337,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3353,13 +3355,18 @@
       <c r="H53" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3380,7 +3387,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3400,16 +3407,12 @@
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="I54" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="I54" s="16" t="n"/>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3430,7 +3433,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3448,13 +3451,18 @@
       <c r="H55" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3475,7 +3483,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3499,7 +3507,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3520,7 +3528,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3537,14 +3545,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3565,7 +3573,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3582,14 +3590,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3605,12 +3613,12 @@
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3627,19 +3635,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3660,7 +3663,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3677,14 +3680,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3705,7 +3713,7 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3722,14 +3730,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3750,7 +3758,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3767,14 +3775,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3795,7 +3803,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
+          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3812,7 +3820,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3820,7 +3828,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3841,7 +3849,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
+          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3858,19 +3866,15 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="n"/>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3891,7 +3895,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3908,19 +3912,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3941,7 +3945,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3958,19 +3962,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3991,7 +3995,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -4008,15 +4012,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I67" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I67" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4032,12 +4040,12 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4054,19 +4062,15 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I68" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I68" s="16" t="n"/>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4087,7 +4091,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4104,7 +4108,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
@@ -4116,7 +4120,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4137,7 +4141,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4166,7 +4170,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4187,7 +4191,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4204,7 +4208,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
@@ -4216,7 +4220,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4237,7 +4241,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4254,7 +4258,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
@@ -4266,7 +4270,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4287,7 +4291,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4304,7 +4308,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
@@ -4316,7 +4320,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4337,7 +4341,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4354,7 +4358,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">
@@ -4366,7 +4370,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4387,7 +4391,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4404,7 +4408,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I75" s="16" t="inlineStr">
@@ -4416,7 +4420,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4437,7 +4441,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4454,7 +4458,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I76" s="16" t="inlineStr">
@@ -4466,7 +4470,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4487,7 +4491,7 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4504,7 +4508,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I77" s="16" t="inlineStr">
@@ -4516,7 +4520,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4537,7 +4541,7 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4554,7 +4558,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I78" s="16" t="inlineStr">
@@ -4566,7 +4570,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4587,7 +4591,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4604,7 +4608,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I79" s="16" t="inlineStr">
@@ -4616,7 +4620,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4632,12 +4636,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>If you need private communication to PaaS services, consider the different options available.</t>
+          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4654,19 +4658,19 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4687,7 +4691,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
+          <t>If you need private communication to PaaS services, consider the different options available.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4709,14 +4713,14 @@
       </c>
       <c r="I81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J81" s="23" t="n"/>
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4737,7 +4741,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4754,19 +4758,19 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4787,7 +4791,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4809,14 +4813,14 @@
       </c>
       <c r="I83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4837,7 +4841,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Use virtual network service endpoints when Private Link isn't available</t>
+          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4859,14 +4863,14 @@
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4887,7 +4891,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Use virtual network service endpoints when Private Link isn't available</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4916,7 +4920,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4937,7 +4941,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4966,7 +4970,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4987,7 +4991,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -5016,7 +5020,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5032,12 +5036,12 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -5059,14 +5063,14 @@
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5087,7 +5091,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5104,19 +5108,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5137,7 +5141,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5159,14 +5163,14 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5187,7 +5191,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5209,14 +5213,14 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5237,7 +5241,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5259,14 +5263,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5287,7 +5291,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5304,7 +5308,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5316,7 +5320,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5337,7 +5341,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5354,7 +5358,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5366,7 +5370,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5387,7 +5391,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5409,14 +5413,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5437,7 +5441,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5454,19 +5458,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5482,12 +5486,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5504,19 +5508,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5537,7 +5541,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5554,7 +5558,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5566,7 +5570,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5587,7 +5591,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5604,19 +5608,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5637,7 +5641,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5654,19 +5658,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5687,7 +5691,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5709,14 +5713,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5737,7 +5741,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5766,7 +5770,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5787,7 +5791,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5804,7 +5808,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5816,7 +5820,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5837,7 +5841,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5854,7 +5858,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5866,7 +5870,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5887,13 +5891,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5904,19 +5908,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5932,18 +5936,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5954,19 +5958,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5982,12 +5986,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -6004,19 +6008,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6032,12 +6036,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6054,19 +6058,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6087,7 +6091,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6104,7 +6108,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -6116,7 +6120,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6137,7 +6141,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6154,7 +6158,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -6166,7 +6170,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6187,7 +6191,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6209,14 +6213,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6237,7 +6241,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6259,14 +6263,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6287,7 +6291,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6309,14 +6313,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6332,12 +6336,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6357,12 +6361,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6383,7 +6391,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6400,19 +6408,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6433,7 +6436,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6450,7 +6453,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6462,7 +6465,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6478,12 +6481,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6500,19 +6503,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6533,7 +6536,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6550,15 +6553,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6579,7 +6586,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6596,14 +6603,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6624,7 +6631,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6641,7 +6648,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6649,7 +6656,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6660,17 +6667,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6687,19 +6694,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6720,7 +6723,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6735,13 +6738,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6762,7 +6773,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6777,21 +6788,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6812,7 +6815,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6841,7 +6844,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6862,7 +6865,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6879,19 +6882,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6912,7 +6915,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6929,19 +6932,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6962,7 +6965,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6979,19 +6982,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7012,7 +7015,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7029,19 +7032,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7062,13 +7065,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7079,14 +7082,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7107,13 +7115,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7124,14 +7132,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7152,7 +7160,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7169,14 +7177,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7197,7 +7205,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7214,14 +7222,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7242,7 +7250,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7259,14 +7267,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7287,7 +7295,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7304,14 +7312,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7332,7 +7340,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7349,14 +7357,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7377,7 +7385,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7394,14 +7402,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7422,7 +7430,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7439,14 +7447,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7467,7 +7475,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7484,14 +7492,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7512,7 +7520,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7529,14 +7537,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7547,23 +7555,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7574,14 +7582,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7592,17 +7600,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7619,14 +7627,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7647,13 +7655,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7664,14 +7672,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7692,7 +7700,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7709,14 +7717,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7737,7 +7745,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7761,7 +7769,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7782,7 +7790,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7806,7 +7814,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7827,7 +7835,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7851,7 +7859,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7872,7 +7880,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7889,14 +7897,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7917,7 +7925,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7941,7 +7949,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7962,7 +7970,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7979,14 +7987,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8007,7 +8015,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8031,7 +8039,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8052,7 +8060,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8069,14 +8077,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8092,18 +8100,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8114,14 +8122,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8137,12 +8145,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8159,14 +8167,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8187,13 +8195,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8211,7 +8219,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8232,7 +8240,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8249,14 +8257,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8277,7 +8285,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8301,7 +8309,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8322,13 +8330,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8346,7 +8354,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8367,7 +8375,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8391,7 +8399,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8412,13 +8420,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8436,7 +8444,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8457,7 +8465,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8481,7 +8489,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8502,7 +8510,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8519,14 +8527,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8547,7 +8555,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8564,14 +8572,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8587,12 +8595,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8609,14 +8617,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8632,12 +8640,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8654,14 +8662,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8682,7 +8690,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8699,14 +8707,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8727,7 +8735,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8744,14 +8752,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8772,7 +8780,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8789,14 +8797,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8817,7 +8825,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8834,14 +8842,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8862,7 +8870,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8879,14 +8887,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8907,7 +8915,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8931,7 +8939,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8952,7 +8960,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8969,14 +8977,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8985,360 +8993,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10896,7 +11624,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10980,7 +11708,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11036,26 +11764,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F35" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F35" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11141,12 +11887,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ID とアクセスの管理</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -11166,7 +11912,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ見ていません</t>
+          <t>このチェックはまだ確認されていません</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11240,7 +11986,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それに関連付けられたアクションアイテムはこれ以上ありません。</t>
+          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11272,7 +12018,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>現在の設計には適用されません</t>
+          <t>現在のデザインには適用できません</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -11294,7 +12040,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>アプリケーションの自動化と DevOps</t>
+          <t>アプリケーションの自動化と開発</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">

--- a/spreadsheet/appsvc_security_checklist.ja.xlsx
+++ b/spreadsheet/appsvc_security_checklist.ja.xlsx
@@ -11892,7 +11892,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -11939,7 +11939,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -12008,7 +12008,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>アプリケーションの自動化と開発</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -12067,7 +12067,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/spreadsheet/appsvc_security_checklist.ja.xlsx
+++ b/spreadsheet/appsvc_security_checklist.ja.xlsx
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>インターネットアドレスへのアウトバウンド通信のための安定したIPを確保する</t>
+          <t>インターネットアドレスへのアウトバウンド通信の安定したIPを確保する</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>Azure はネットワーク上で DDoS Basic 保護を提供しますが、通常のトラフィック パターンを学習し、異常な動作を検出できるインテリジェントな DDoS 標準機能で強化できます。DDoS 標準は仮想ネットワークに適用されるため、アプリケーション ゲートウェイや NVA など、アプリの前のネットワーク リソース用に構成する必要があります。</t>
+          <t>Azure はネットワーク上で DDoS Basic 保護を提供しますが、通常のトラフィック パターンについて学習し、異常な動作を検出できるインテリジェントな DDoS 標準機能で改善できます。DDoS 標準は仮想ネットワークに適用されるため、アプリケーション ゲートウェイや NVA など、アプリの前のネットワーク リソース用に構成する必要があります。</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">

--- a/spreadsheet/appsvc_security_checklist.ja.xlsx
+++ b/spreadsheet/appsvc_security_checklist.ja.xlsx
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/configure-ssl-certificate</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-certificate</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/overview-hosting-plans</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1326,7 +1326,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
+          <t>https://learn.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1376,7 +1376,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/overview-authentication-authorization</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-authentication-authorization</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1426,7 +1426,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/deploy-best-practices</t>
+          <t>https://learn.microsoft.com/azure/app-service/deploy-best-practices</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1476,7 +1476,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
+          <t>https://learn.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1526,7 +1526,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1576,7 +1576,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1626,7 +1626,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
+          <t>https://learn.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1676,7 +1676,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1726,7 +1726,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/overview-vnet-integration</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-vnet-integration</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1776,7 +1776,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1826,7 +1826,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1876,7 +1876,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1926,7 +1926,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1976,7 +1976,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -2026,7 +2026,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2076,7 +2076,7 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
@@ -2125,7 +2125,7 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
@@ -2174,7 +2174,7 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
@@ -2223,7 +2223,7 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
@@ -2272,7 +2272,7 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
@@ -2321,7 +2321,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/pen-testing</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/pen-testing</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2371,7 +2371,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
+          <t>https://learn.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2421,7 +2421,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
